--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW29.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW29.xlsx
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9627750004454999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.638633333072</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.321125000105</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -5195,37 +5195,37 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3032083333808333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="I181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="K181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.655049999934</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -7019,37 +7019,37 @@
         <v>182.0</v>
       </c>
       <c r="B183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="D183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="E183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="F183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="G183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="H183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="I183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="J183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="K183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
       <c r="L183" t="n">
-        <v>2.269516666438</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="C312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="D312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="E312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="G312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="H312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="I312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="J312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="K312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
       <c r="L312" t="n">
-        <v>0.34218947380799997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="313">
@@ -12453,37 +12453,37 @@
         <v>325.0</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="E326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="G326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="H326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="I326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="J326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="K326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
       <c r="L326" t="n">
-        <v>-0.632116666408</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="327">
@@ -12947,37 +12947,37 @@
         <v>338.0</v>
       </c>
       <c r="B339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="C339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="D339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="E339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="F339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="G339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="H339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="I339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="J339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="K339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
       <c r="L339" t="n">
-        <v>1.338584210964</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="340">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>0.662531579164</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -14239,37 +14239,37 @@
         <v>372.0</v>
       </c>
       <c r="B373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="C373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="D373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="E373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="F373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="G373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="H373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="I373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="J373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="K373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
       <c r="L373" t="n">
-        <v>2.4617999990760002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="374">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="C410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="D410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="E410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="F410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="G410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="H410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="I410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="J410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="K410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
       <c r="L410" t="n">
-        <v>1.4553</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="411">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="C416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="D416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="E416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="F416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="G416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="H416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="I416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="J416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="K416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
       <c r="L416" t="n">
-        <v>4.0020750000000005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="417">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="C423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="D423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="E423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="F423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="G423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="H423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="I423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="J423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="K423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
       <c r="L423" t="n">
-        <v>2.673133333064</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="424">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="C446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="D446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="E446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="F446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="G446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="H446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="I446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="J446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="K446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
       <c r="L446" t="n">
-        <v>0.32967236856399995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="447">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="D473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="E473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="H473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="I473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="J473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="K473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="L473" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -19065,37 +19065,37 @@
         <v>499.0</v>
       </c>
       <c r="B500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="C500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="D500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="E500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="F500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="G500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="H500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="I500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="J500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="K500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
       <c r="L500" t="n">
-        <v>6.316578947700001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="501">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="C510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="D510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="E510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="G510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="H510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="I510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="J510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="K510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="L510" t="n">
-        <v>1.5041666666666664</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="511">
@@ -20547,37 +20547,37 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="C539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="D539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="E539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="F539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="G539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="H539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="I539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="J539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="K539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="L539" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="540">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="C576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="D576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="E576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="F576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="G576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="H576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="I576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="J576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="K576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="L576" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.31937500006999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="C618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="E618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="F618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="G618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="H618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="I618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="J618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
       <c r="L618" t="n">
-        <v>0.8844499999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="619">
